--- a/src/main/resources/static/fileMau/fileMauProduct.xlsx
+++ b/src/main/resources/static/fileMau/fileMauProduct.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DATN\DATN_BE_2003Shoes\src\main\resources\static\fileMau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44324EE-78A5-441A-8041-3EB91FCEF7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0126FCE4-47C0-48EC-8FDB-804A1977F875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" xr2:uid="{E5B39717-D5A6-446F-B264-D4DBCAC40ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,32 @@
   </si>
   <si>
     <r>
-      <t>Màu Sắc Giày (</t>
+      <t>Giá (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Size Giày (</t>
     </r>
     <r>
       <rPr>
@@ -247,22 +272,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(maxlength = 250 kí tự)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">(maxlength = 250 kí tự) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhập Id của size cách nhau bởi dấu ','</t>
     </r>
   </si>
   <si>
     <r>
-      <t>Size Giày (</t>
+      <t>Màu Sắc Giày (</t>
     </r>
     <r>
       <rPr>
@@ -292,32 +327,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">(maxlength = 250 kí tự) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Giá (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+      <t>(maxlength = 250 kí tự)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nhập Id của màu sắc cách nhau bởi dấu ','</t>
     </r>
   </si>
 </sst>
@@ -402,7 +432,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,8 +752,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -733,8 +763,8 @@
     <col min="3" max="3" width="29.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36" style="1" customWidth="1"/>
     <col min="8" max="8" width="30.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.54296875" style="1" customWidth="1"/>
     <col min="10" max="10" width="35.36328125" style="1" customWidth="1"/>
@@ -759,13 +789,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
